--- a/2018_data/Cooper_Rush2018.xlsx
+++ b/2018_data/Cooper_Rush2018.xlsx
@@ -12,32 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>https://www.pro-football-reference.com/players/R/RushCo00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-10-14</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>24.327</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>JAX</t>
-  </si>
-  <si>
-    <t>W 40-7</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,30 +353,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Cooper</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2018-10-14</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>24.327</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>W 40-7</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
